--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8ACE75-47FB-4268-8541-7EDD9AC57C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4564AF4E-93DD-4244-9A73-B34ACED0142A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -377,7 +373,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
